--- a/Data/Tick diversity.xlsx
+++ b/Data/Tick diversity.xlsx
@@ -24,7 +24,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Cattle_ID</t>
+  </si>
+  <si>
+    <t>A..variegatum</t>
+  </si>
+  <si>
+    <t>A..coharenses</t>
+  </si>
+  <si>
+    <t>B..annulatus</t>
+  </si>
+  <si>
+    <t>B..decoloratus</t>
+  </si>
+  <si>
+    <t>B..geigyi</t>
+  </si>
+  <si>
+    <t>H..laechi</t>
+  </si>
+  <si>
+    <t>R..gulhoni</t>
+  </si>
+  <si>
+    <t>R..lunulatus</t>
+  </si>
+  <si>
+    <t>R..muhsame</t>
+  </si>
+  <si>
+    <t>R..sanguineus</t>
+  </si>
+  <si>
+    <t>R..senegalensis</t>
+  </si>
+  <si>
+    <t>Boophilus.sp.</t>
+  </si>
+  <si>
+    <t>R..quilhoni</t>
+  </si>
+  <si>
+    <t>R.gemma</t>
+  </si>
+  <si>
+    <t>R.fanguineus</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,85 +389,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>46</v>
-      </c>
-      <c r="E1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1">
-        <v>20</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -433,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -450,46 +499,46 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
+      <c r="N3">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -500,7 +549,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -509,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -527,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -550,22 +599,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -600,22 +649,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -624,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -650,46 +699,46 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -700,34 +749,34 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
       <c r="E8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -750,22 +799,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>34</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
       <c r="F9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,95 +826,95 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -900,28 +949,28 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -950,28 +999,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1000,22 +1049,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>8</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1050,7 +1099,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1059,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1100,7 +1149,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1109,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1150,7 +1199,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1159,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1200,22 +1249,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>11</v>
-      </c>
       <c r="F18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1250,7 +1299,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1259,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1300,22 +1349,22 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
         <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1350,22 +1399,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1400,22 +1449,22 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1450,22 +1499,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1500,7 +1549,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1509,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1550,7 +1599,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1559,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1600,7 +1649,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1609,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1650,7 +1699,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1659,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1700,57 +1749,107 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>25</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>12</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1759,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1800,7 +1899,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1809,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>12</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1850,57 +1949,107 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1912,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1950,7 +2099,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1959,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2000,7 +2149,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2009,98 +2158,198 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>5</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>8</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2112,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2150,7 +2399,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2162,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
         <v>5</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2200,7 +2449,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2212,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
         <v>2</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2250,7 +2499,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2262,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2300,7 +2549,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2312,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -2348,9 +2597,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2359,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2400,57 +2699,107 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2465,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2500,7 +2849,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2509,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2550,7 +2899,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2562,16 +2911,16 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2580,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2600,7 +2949,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2609,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2630,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2650,28 +2999,28 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2700,22 +3049,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2727,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>1</v>
-      </c>
-      <c r="K54">
-        <v>3</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -2750,40 +3099,40 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
       <c r="D55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>7</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -2800,7 +3149,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2809,31 +3158,31 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -2850,23 +3199,23 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57">
         <v>5</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -2874,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2900,7 +3249,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2909,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2927,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -2950,40 +3299,40 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>2</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -3000,34 +3349,34 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>1</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3050,19 +3399,19 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -3071,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3100,7 +3449,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3109,22 +3458,22 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
         <v>2</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3150,10 +3499,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3162,19 +3511,19 @@
         <v>6</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3200,31 +3549,31 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>6</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3250,31 +3599,31 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>2</v>
       </c>
-      <c r="C65">
+      <c r="I65">
         <v>2</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <v>9</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3300,31 +3649,31 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
         <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3350,31 +3699,31 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3400,22 +3749,22 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3424,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3450,7 +3799,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3459,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3500,7 +3849,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3509,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3550,7 +3899,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3559,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71">
         <v>9</v>
-      </c>
-      <c r="E71">
-        <v>27</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3600,7 +3949,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3609,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3650,7 +3999,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3659,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>14</v>
+      </c>
+      <c r="F73">
         <v>6</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3700,57 +4049,607 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
         <v>3</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3762,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3800,7 +4699,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3812,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3850,7 +4749,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3859,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3900,57 +4799,207 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
         <v>2</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>4</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>1</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3959,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3977,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4000,7 +5049,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4009,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>4</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4027,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4050,51 +5099,101 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>7</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>13</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>6</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
         <v>0</v>
       </c>
     </row>
